--- a/segmentation/closure_by_seg.xlsx
+++ b/segmentation/closure_by_seg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="564" windowWidth="9276" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="615" yWindow="570" windowWidth="9270" windowHeight="6300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2855,11 +2855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="56016896"/>
-        <c:axId val="56018816"/>
+        <c:axId val="31438336"/>
+        <c:axId val="31439872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56016896"/>
+        <c:axId val="31438336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56018816"/>
+        <c:crossAx val="31439872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2876,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56018816"/>
+        <c:axId val="31439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +2887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56016896"/>
+        <c:crossAx val="31438336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2901,6 +2901,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4429,11 +4434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="24317952"/>
-        <c:axId val="24319488"/>
+        <c:axId val="34766208"/>
+        <c:axId val="34772096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24317952"/>
+        <c:axId val="34766208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24319488"/>
+        <c:crossAx val="34772096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4450,7 +4455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24319488"/>
+        <c:axId val="34772096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +4466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24317952"/>
+        <c:crossAx val="34766208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5625,7 +5630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A37:I64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -6485,7 +6490,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:AA12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -7253,9 +7258,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7280,7 +7285,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7322,7 +7327,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7364,7 +7369,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7378,7 +7383,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7392,7 +7397,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -7406,7 +7411,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -7434,7 +7439,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -7448,7 +7453,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -7490,7 +7495,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -7518,7 +7523,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7537,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -7560,7 +7565,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -7588,7 +7593,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -7602,7 +7607,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -7616,7 +7621,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -7630,7 +7635,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -7644,7 +7649,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -7658,7 +7663,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -7672,7 +7677,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -7686,7 +7691,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -7714,7 +7719,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -7728,7 +7733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -7742,7 +7747,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -7756,7 +7761,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -7770,7 +7775,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -7784,7 +7789,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -7798,7 +7803,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -7826,7 +7831,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -7840,7 +7845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -7868,7 +7873,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7882,7 +7887,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -7896,7 +7901,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -7910,7 +7915,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -7924,7 +7929,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -7938,7 +7943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -7952,7 +7957,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -7966,7 +7971,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -7980,7 +7985,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -8008,7 +8013,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -8022,7 +8027,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -8036,7 +8041,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -8064,7 +8069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -8078,7 +8083,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -8092,7 +8097,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -8106,7 +8111,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -8120,7 +8125,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -8148,7 +8153,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -8176,7 +8181,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -8190,7 +8195,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -8204,7 +8209,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -8218,7 +8223,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -8232,7 +8237,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -8260,7 +8265,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -8274,7 +8279,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -8288,7 +8293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -8302,7 +8307,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8316,7 +8321,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -8330,7 +8335,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -8344,7 +8349,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -8358,7 +8363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -8372,7 +8377,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -8386,7 +8391,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -8400,7 +8405,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -8428,7 +8433,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -8442,7 +8447,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -8470,7 +8475,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -8484,7 +8489,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -8498,7 +8503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -8512,7 +8517,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -8526,7 +8531,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -8540,7 +8545,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -8568,7 +8573,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -8582,7 +8587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -8596,7 +8601,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -8610,7 +8615,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -8624,7 +8629,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -8638,7 +8643,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -8652,7 +8657,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -8680,7 +8685,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -8694,7 +8699,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -8708,7 +8713,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -8722,7 +8727,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -8736,7 +8741,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -8750,7 +8755,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -8764,7 +8769,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -8778,7 +8783,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -8792,7 +8797,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -8806,7 +8811,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -8820,7 +8825,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -8834,7 +8839,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -8848,7 +8853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -8862,7 +8867,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -8876,7 +8881,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -8890,7 +8895,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -8904,7 +8909,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -8932,7 +8937,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -8946,7 +8951,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -8960,7 +8965,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -8974,7 +8979,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -8988,7 +8993,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -9002,7 +9007,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -9016,7 +9021,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -9030,7 +9035,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -9044,7 +9049,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -9072,7 +9077,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -9086,7 +9091,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -9100,7 +9105,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -9114,7 +9119,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -9128,7 +9133,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -9142,7 +9147,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -9156,7 +9161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -9170,7 +9175,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -9184,7 +9189,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -9212,7 +9217,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -9254,7 +9259,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -9268,7 +9273,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -9282,7 +9287,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -9296,7 +9301,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -9310,7 +9315,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -9324,7 +9329,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -9338,7 +9343,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -9366,7 +9371,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -9380,7 +9385,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -9394,7 +9399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -9408,7 +9413,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -9422,7 +9427,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -9436,7 +9441,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -9450,7 +9455,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -9464,7 +9469,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -9492,7 +9497,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -9506,7 +9511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -9520,7 +9525,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -9534,7 +9539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -9548,7 +9553,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -9562,7 +9567,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -9576,7 +9581,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -9590,7 +9595,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -9604,7 +9609,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -9618,7 +9623,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -9632,7 +9637,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -9646,7 +9651,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -9660,7 +9665,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -9674,7 +9679,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -9688,7 +9693,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -9702,7 +9707,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -9716,7 +9721,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -9730,7 +9735,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -9744,7 +9749,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -9758,7 +9763,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -9772,7 +9777,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -9786,7 +9791,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -9800,7 +9805,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -9814,7 +9819,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -9842,7 +9847,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -9856,7 +9861,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -9870,7 +9875,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -9898,7 +9903,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -9912,7 +9917,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -9926,7 +9931,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -9940,7 +9945,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -9954,7 +9959,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -9968,7 +9973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -9982,7 +9987,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -9996,7 +10001,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -10010,7 +10015,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -10024,7 +10029,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -10038,7 +10043,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -10052,7 +10057,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -10075,18 +10080,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>235</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>236</v>
       </c>
@@ -10177,7 +10182,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>229</v>
       </c>
@@ -10260,7 +10265,7 @@
         <v>685.03622593238572</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>230</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>385.6032152637066</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>231</v>
       </c>
@@ -10426,7 +10431,7 @@
         <v>578.56355134378884</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>232</v>
       </c>
@@ -10509,7 +10514,7 @@
         <v>486.18207866207149</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>233</v>
       </c>
@@ -10592,7 +10597,7 @@
         <v>333.45755343959308</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>239</v>
       </c>
@@ -10675,7 +10680,7 @@
         <v>448.36507216961581</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>234</v>
       </c>
@@ -10758,7 +10763,7 @@
         <v>165.58303438620311</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>237</v>
       </c>
@@ -10841,7 +10846,7 @@
         <v>3082.7907311973645</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>235</v>
       </c>
@@ -10849,7 +10854,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>236</v>
       </c>
@@ -10878,7 +10883,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>203</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>92.378495167979949</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>204</v>
       </c>
@@ -10936,7 +10941,7 @@
         <v>108.91330126097257</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>205</v>
       </c>
@@ -10965,7 +10970,7 @@
         <v>151.50008565848367</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>206</v>
       </c>
@@ -10994,7 +10999,7 @@
         <v>95.73572032871526</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>207</v>
       </c>
@@ -11023,7 +11028,7 @@
         <v>167.88708261964928</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>208</v>
       </c>
@@ -11052,7 +11057,7 @@
         <v>97.776371334477531</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>209</v>
       </c>
@@ -11081,7 +11086,7 @@
         <v>108.7753342525581</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>210</v>
       </c>
@@ -11110,7 +11115,7 @@
         <v>88.726608970985595</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>211</v>
       </c>
@@ -11139,7 +11144,7 @@
         <v>134.73733931678157</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>212</v>
       </c>
@@ -11168,7 +11173,7 @@
         <v>85.538442993462667</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>213</v>
       </c>
@@ -11197,7 +11202,7 @@
         <v>202.34072149523215</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>214</v>
       </c>
@@ -11226,7 +11231,7 @@
         <v>107.31596256572608</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -11255,7 +11260,7 @@
         <v>93.847083458972421</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>216</v>
       </c>
@@ -11284,7 +11289,7 @@
         <v>105.65981368209138</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>217</v>
       </c>
@@ -11313,7 +11318,7 @@
         <v>142.09494213903477</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>218</v>
       </c>
@@ -11342,7 +11347,7 @@
         <v>121.39291844596933</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>219</v>
       </c>
@@ -11371,7 +11376,7 @@
         <v>186.70451338714693</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>220</v>
       </c>
@@ -11400,7 +11405,7 @@
         <v>108.53977700156648</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>221</v>
       </c>
@@ -11429,7 +11434,7 @@
         <v>109.20042673031858</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>222</v>
       </c>
@@ -11458,7 +11463,7 @@
         <v>112.58832549700803</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>223</v>
       </c>
@@ -11487,7 +11492,7 @@
         <v>145.24870087152325</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>224</v>
       </c>
@@ -11516,7 +11521,7 @@
         <v>135.84411387662075</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>225</v>
       </c>
@@ -11545,7 +11550,7 @@
         <v>134.02839481314362</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>226</v>
       </c>
@@ -11574,7 +11579,7 @@
         <v>136.91758011111258</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>227</v>
       </c>
@@ -11603,7 +11608,7 @@
         <v>109.09867521783227</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>237</v>
       </c>
